--- a/StructureDefinition-profile-DeviceMetric.xlsx
+++ b/StructureDefinition-profile-DeviceMetric.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6706991-06:00</t>
+    <t>2026-02-09T22:05:43.0710226-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,33 +416,60 @@
     <t>DeviceMetric.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceMetric.extension:measurementFrequency</t>
+  </si>
+  <si>
+    <t>measurementFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.measurementFrequency|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceMetric.measurementFrequency from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The frequency at which the metric is taken or recorded. Devices measure metrics at a wide range of frequencies; for example, an ECG might sample measurements in the millisecond range, while an NIBP might trigger only once an hour. Less often, the measurementFrequency may be based on a unit other than time, such as distance (e.g. for a measuring wheel). The update period may be different than the measurement frequency, if the device does not update the published observed value with the same frequency as it was measured.</t>
+  </si>
+  <si>
+    <t>Element `DeviceMetric.measurementFrequency` is will have a context of DeviceMetric based on following the parent source element upwards and mapping to `DeviceMetric`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>DeviceMetric.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceMetric.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -450,6 +477,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -631,6 +661,9 @@
   </si>
   <si>
     <t>DeviceMetric.calibration.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1003,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1012,9 +1045,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.76171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.76171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.5625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1022,7 +1055,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1930,7 +1963,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1949,17 +1982,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -1996,16 +2027,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2026,7 +2055,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2034,43 +2063,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2118,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2127,7 +2156,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -2136,19 +2165,19 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2161,24 +2190,26 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2226,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2238,21 +2269,21 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2260,10 +2291,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2275,16 +2306,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2310,13 +2341,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2334,13 +2365,13 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
@@ -2349,7 +2380,7 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2357,10 +2388,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2368,7 +2399,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>85</v>
@@ -2383,16 +2414,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2421,10 +2452,10 @@
         <v>109</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2442,10 +2473,10 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>85</v>
@@ -2457,7 +2488,7 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2465,10 +2496,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2491,15 +2522,17 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2524,13 +2557,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -2548,7 +2581,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2571,10 +2604,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2597,13 +2630,13 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2654,7 +2687,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2677,10 +2710,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2703,13 +2736,13 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2736,13 +2769,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2760,7 +2793,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2783,10 +2816,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2812,10 +2845,10 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2842,31 +2875,31 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2889,10 +2922,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2900,7 +2933,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -2918,10 +2951,10 @@
         <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2948,34 +2981,34 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>85</v>
@@ -2987,7 +3020,7 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -2995,10 +3028,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3006,7 +3039,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
@@ -3021,13 +3054,13 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3054,13 +3087,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3078,10 +3111,10 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>85</v>
@@ -3093,7 +3126,7 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3101,10 +3134,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3115,7 +3148,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3127,13 +3160,13 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3184,13 +3217,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3207,10 +3240,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3221,7 +3254,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3230,16 +3263,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3290,44 +3323,44 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3339,17 +3372,15 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3398,37 +3429,37 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3441,26 +3472,24 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3508,7 +3537,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3526,47 +3555,51 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>128</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3590,13 +3623,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -3614,33 +3647,33 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3666,10 +3699,10 @@
         <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3696,13 +3729,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -3720,7 +3753,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3743,10 +3776,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3769,13 +3802,13 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3802,13 +3835,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -3826,7 +3859,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3844,6 +3877,112 @@
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceMetric.xlsx
+++ b/StructureDefinition-profile-DeviceMetric.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="233">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0710226-06:00</t>
+    <t>2026-02-17T14:42:26.7874031-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>The frequency at which the metric is taken or recorded. Devices measure metrics at a wide range of frequencies; for example, an ECG might sample measurements in the millisecond range, while an NIBP might trigger only once an hour. Less often, the measurementFrequency may be based on a unit other than time, such as distance (e.g. for a measuring wheel). The update period may be different than the measurement frequency, if the device does not update the published observed value with the same frequency as it was measured.</t>
   </si>
   <si>
-    <t>Element `DeviceMetric.measurementFrequency` is will have a context of DeviceMetric based on following the parent source element upwards and mapping to `DeviceMetric`.</t>
+    <t>Element `DeviceMetric.measurementFrequency` has a context of DeviceMetric based on following the parent source element upwards and mapping to `DeviceMetric`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -663,13 +663,23 @@
     <t>DeviceMetric.calibration.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DeviceMetric.calibration.extension:calibration</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.calibration|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for DeviceMetric.calibration from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `DeviceMetric.calibration` has is mapped to FHIR R4 element `DeviceMetric.calibration`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceMetric.calibration.modifierExtension</t>
@@ -1036,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3459,7 +3469,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3481,14 +3491,12 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3525,19 +3533,17 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3555,19 +3561,21 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3580,26 +3588,24 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3656,7 +3662,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>136</v>
@@ -3665,47 +3671,51 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -3729,13 +3739,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -3753,33 +3763,33 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3805,10 +3815,10 @@
         <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3838,10 +3848,10 @@
         <v>180</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -3859,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3882,10 +3892,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3908,13 +3918,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3941,13 +3951,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -3965,7 +3975,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3983,6 +3993,112 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-DeviceMetric.xlsx
+++ b/StructureDefinition-profile-DeviceMetric.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7874031-06:00</t>
+    <t>2026-02-20T11:59:20.7842001-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceMetric|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceMetric</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>measurementFrequency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.measurementFrequency|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.measurementFrequency}
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>calibration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.calibration|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.calibration}
 </t>
   </si>
   <si>
@@ -1065,7 +1065,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-DeviceMetric.xlsx
+++ b/StructureDefinition-profile-DeviceMetric.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7842001-06:00</t>
+    <t>2026-02-21T13:36:54.1995717-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DeviceMetric</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DeviceMetric|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>measurementFrequency</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.measurementFrequency}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.measurementFrequency|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -663,23 +663,13 @@
     <t>DeviceMetric.calibration.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DeviceMetric.calibration.extension:calibration</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceMetric.calibration}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for DeviceMetric.calibration from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `DeviceMetric.calibration` has is mapped to FHIR R4 element `DeviceMetric.calibration`, but has no comparisons.</t>
   </si>
   <si>
     <t>DeviceMetric.calibration.modifierExtension</t>
@@ -1046,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1065,7 +1055,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="98.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3469,7 +3459,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3491,12 +3481,14 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -3533,17 +3525,19 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3561,21 +3555,19 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3588,24 +3580,26 @@
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3653,7 +3647,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3662,7 +3656,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>136</v>
@@ -3671,51 +3665,47 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -3739,13 +3729,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -3763,33 +3753,33 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3815,10 +3805,10 @@
         <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3848,10 +3838,10 @@
         <v>180</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -3869,7 +3859,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3892,10 +3882,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3918,13 +3908,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3951,13 +3941,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -3975,7 +3965,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3993,112 +3983,6 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="s" s="2">
         <v>75</v>
       </c>
     </row>
